--- a/fgt-tables/fgt_total_sm.xlsx
+++ b/fgt-tables/fgt_total_sm.xlsx
@@ -371,10 +371,10 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>0.08521535162575287</v>
+        <v>0.07282430245866145</v>
       </c>
       <c r="B2">
-        <v>0.0009866106214695082</v>
+        <v>0.0008445348135510376</v>
       </c>
     </row>
   </sheetData>
